--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value84.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value84.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226080229985647</v>
+        <v>2.476312637329102</v>
       </c>
       <c r="B1">
-        <v>1.319118538809668</v>
+        <v>3.997977256774902</v>
       </c>
       <c r="C1">
-        <v>1.497565619441673</v>
+        <v>0.1788633912801743</v>
       </c>
       <c r="D1">
-        <v>2.365536049720161</v>
+        <v>0.1400669068098068</v>
       </c>
       <c r="E1">
-        <v>4.497611947971004</v>
+        <v>0.1275423914194107</v>
       </c>
     </row>
   </sheetData>
